--- a/data/georgia_census/imereti/sachxere/population_total.xlsx
+++ b/data/georgia_census/imereti/sachxere/population_total.xlsx
@@ -1373,13 +1373,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3E9F12-EB0B-43C5-B298-B5D100958281}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39B9D787-C91C-4756-9B17-9B824C4E17DD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF788D0-5F44-4719-8A68-3B24E88B4F2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A4844CE-3C52-45CB-878C-2FD410656B9E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63FE12F-0539-47F4-8672-D352E0028A48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BAC5F9-DFF3-441C-B485-00A106D7CF5D}"/>
 </file>